--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/Titles.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/Titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC613430-FBEF-4D17-8322-2326B44278B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2EA5F-A1E0-4D97-80F6-799F7FBF41AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{87C35FC9-9EF7-4B57-BFD9-76E6F6FAE2FD}"/>
+    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{87C35FC9-9EF7-4B57-BFD9-76E6F6FAE2FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>MD</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -486,9 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22B869-99D3-4E64-9B5E-9162EA43646F}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -657,6 +665,16 @@
         <v>31</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LabSignup/LabSignup/bin/Debug/ExcelFiles/Titles.xlsx
+++ b/LabSignup/LabSignup/bin/Debug/ExcelFiles/Titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\LabSignup\LabSignup\LabSignup\bin\Debug\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2EA5F-A1E0-4D97-80F6-799F7FBF41AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC663E9-34E4-4974-923E-2E8E4A7F170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{87C35FC9-9EF7-4B57-BFD9-76E6F6FAE2FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87C35FC9-9EF7-4B57-BFD9-76E6F6FAE2FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>MD</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -492,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22B869-99D3-4E64-9B5E-9162EA43646F}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,16 +659,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
